--- a/comparison_result3.xlsx
+++ b/comparison_result3.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+ The + additional + hand + pump + to + be + supplied + by + Buyer.</t>
+          <t>The additional pump supplied Buyer.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -499,7 +499,7 @@
 Remote valve for cargo valve to be operated remotely and manually by portable hand 
 pump.' → '3.1.3 REMOTE VALVE CONTROL SYSTEM 
 Remote valve for cargo valve to be operated remotely and manually by portable hand 
-pump. The additional hand pump to be supplied by Buyer.'. 변경된 부분: + The + additional + hand + pump + to + be + supplied + by + Buyer.</t>
+pump. The additional hand pump to be supplied by Buyer.'. 변경된 부분: The additional pump supplied Buyer.</t>
         </is>
       </c>
     </row>
